--- a/biology/Zoologie/Guêpier_de_Perse/Guêpier_de_Perse.xlsx
+++ b/biology/Zoologie/Guêpier_de_Perse/Guêpier_de_Perse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Perse</t>
+          <t>Guêpier_de_Perse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Merops persicus
 Le Guêpier de Perse (Merops persicus) est une espèce d'oiseaux de la famille des Meropidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Perse</t>
+          <t>Guêpier_de_Perse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau présente un plumage vert vif et une gorge rouge roussâtre avec du jaune uniquement sur le menton. Ses rectrices médianes sont très longues.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Perse</t>
+          <t>Guêpier_de_Perse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau présente un vol rapide et gracieux.
-Alimentation
-Cet oiseau consomme essentiellement des insectes, en particulier des hyménoptères (abeilles, guêpes et frelons).
 </t>
         </is>
       </c>
@@ -558,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Perse</t>
+          <t>Guêpier_de_Perse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +587,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Reproduction</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cet oiseau niche en solitaire ou en colonies lâches dans les plaines et les talus sableux ainsi que dans les fossés. Le nid est établi au fond d'un tunnel de un à trois mètres.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau consomme essentiellement des insectes, en particulier des hyménoptères (abeilles, guêpes et frelons).
 </t>
         </is>
       </c>
@@ -589,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Perse</t>
+          <t>Guêpier_de_Perse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,12 +624,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire s'étend en Afrique du Nord et au Moyen-Orient, mais également dans le nord du Sénégal et au Mali où il réside tout au long de l'année.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau niche en solitaire ou en colonies lâches dans les plaines et les talus sableux ainsi que dans les fossés. Le nid est établi au fond d'un tunnel de un à trois mètres.
 </t>
         </is>
       </c>
@@ -620,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Perse</t>
+          <t>Guêpier_de_Perse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,10 +657,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire s'étend en Afrique du Nord et au Moyen-Orient, mais également dans le nord du Sénégal et au Mali où il réside tout au long de l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Guêpier_de_Perse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gu%C3%AApier_de_Perse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit presque toujours dans des zones semi-désertiques à proximité d'étendues comme les rivières, les canaux d'irrigation, les lacs et les marais.
 </t>
